--- a/src/main/webapp/temp/respectUpload.xlsx
+++ b/src/main/webapp/temp/respectUpload.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -70,14 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1909-12-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>330719196804253000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>苏州市科灵路78号</t>
     <rPh sb="0" eb="1">
       <t>su'zho'shi</t>
@@ -88,6 +80,81 @@
     <rPh sb="8" eb="9">
       <t>hao</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属社区</t>
+    <rPh sb="0" eb="1">
+      <t>suo'hsu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：所属社区请按照规则填写：（账号设置 --&gt;社区管理(社区名称)）</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'sh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sh'q</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an'z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gui'ze</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tian'xie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhang'hso</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sh'q</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>she'q</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新升社区</t>
+  </si>
+  <si>
+    <t>320524194611072000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1946-11-07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <rPh sb="0" eb="1">
+      <t>li'si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320524194611072001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,11 +183,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="14"/>
@@ -153,6 +215,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,19 +244,22 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -528,64 +602,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="F3">
         <v>18075301052</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>18075301052</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
